--- a/Fields.xlsx
+++ b/Fields.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="1455" yWindow="4215" windowWidth="15120" windowHeight="7200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create an account" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Auth" sheetId="4" r:id="rId2"/>
+    <sheet name="Flight_detail" sheetId="2" r:id="rId3"/>
+    <sheet name="Passangers_info" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="6" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
   <si>
     <t>https://ecom-staging-yanair.worldticket.net/customer/account/create?___store=en</t>
   </si>
@@ -103,13 +106,423 @@
   </si>
   <si>
     <t>unchecked</t>
+  </si>
+  <si>
+    <t>требования</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пользователь должен иметь возможность вводить латиницу, в верхнем и нижнем регистре, а также цифры. Символы запрещены для ввода кроме точки и нижнего подчеркивания. Окончания emeil всегда должен заканчитавться на @название почтового клиента.com</t>
+  </si>
+  <si>
+    <t>Допустимы только цифры, минимум 6 - максимум 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латиница, верхний и нижний регистры, минимум 1 максимум 35 символов. </t>
+  </si>
+  <si>
+    <t>Латиница,верхний и нижний регистры (мин.1 символа макс. 25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбор из списка </t>
+  </si>
+  <si>
+    <t>validation-passed</t>
+  </si>
+  <si>
+    <t>до 30 только латиница</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>not valid text</t>
+  </si>
+  <si>
+    <t>not valid
+id (после подтв)</t>
+  </si>
+  <si>
+    <t>not valid 
+class (во время ввода)</t>
+  </si>
+  <si>
+    <t>req - id* (пустое поле)</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Создать новую учётную запись клиента</t>
+  </si>
+  <si>
+    <t>Створити нового клієнта</t>
+  </si>
+  <si>
+    <t>Create New Customer Account</t>
+  </si>
+  <si>
+    <t>ИНФОРМАЦИЯ ДЛЯ АВТОРИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>ПАРОЛЬ</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>advice-validate-email-email_address</t>
+  </si>
+  <si>
+    <t>advice-required-entry-email_address</t>
+  </si>
+  <si>
+    <t>АДРЕС ЭЛЕКТРОННОЙ ПОЧТЫ</t>
+  </si>
+  <si>
+    <t>АДРЕСА ЕЛЕКТРОННОЇ ПОШТИ</t>
+  </si>
+  <si>
+    <t>confirmation_email_address</t>
+  </si>
+  <si>
+    <t>advice-validate-email-confirmation_email_address</t>
+  </si>
+  <si>
+    <t>advice-required-entry-confirmation_email_address</t>
+  </si>
+  <si>
+    <t>ПОДТВЕРДИТЕ Э-АДРЕС</t>
+  </si>
+  <si>
+    <t>ПІДТВЕРДЖЕННЯ Е-АДРЕСИ</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите 6 или более символов. Пробелы перед и после символов будут проигнорированы.</t>
+  </si>
+  <si>
+    <t>advice-validate-existing-password-password</t>
+  </si>
+  <si>
+    <t>validation-error-tooltip</t>
+  </si>
+  <si>
+    <t>advice-required-entry-password</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>advice-validate-cpassword-confirmation</t>
+  </si>
+  <si>
+    <t>advice-required-entry-confirmation</t>
+  </si>
+  <si>
+    <t>ПОДТВЕРДИТЕ ПАРОЛЬ</t>
+  </si>
+  <si>
+    <t>ПІДТВЕРДЖЕННЯ ПАРОЛЮ</t>
+  </si>
+  <si>
+    <t>ЛИЧНАЯ ИНФОРМАЦИЯ</t>
+  </si>
+  <si>
+    <t>ОСОБИСТА ІНФОРМАЦІЯ</t>
+  </si>
+  <si>
+    <t>NOT REQUIRED</t>
+  </si>
+  <si>
+    <t>ТИП</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>Please use only latin letters (a-z or A-Z) in this field.</t>
+  </si>
+  <si>
+    <t>advice-validate-latin-firstname</t>
+  </si>
+  <si>
+    <t>advice-required-entry-firstname</t>
+  </si>
+  <si>
+    <t>ИМЯ</t>
+  </si>
+  <si>
+    <t>ІМ\'Я</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>advice-validate-latin-middlename</t>
+  </si>
+  <si>
+    <t>NOT REQUIRED (лат)</t>
+  </si>
+  <si>
+    <t>ИНИЦИАЛЫ</t>
+  </si>
+  <si>
+    <t>ІНІЦІАЛИ</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>advice-validate-latin-lastname</t>
+  </si>
+  <si>
+    <t>advice-required-entry-lastname</t>
+  </si>
+  <si>
+    <t>ФАМИЛИЯ</t>
+  </si>
+  <si>
+    <t>ПРІЗВИЩЕ</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>advice-required-entry-company_name</t>
+  </si>
+  <si>
+    <t>preferred_language</t>
+  </si>
+  <si>
+    <t>is default</t>
+  </si>
+  <si>
+    <t>ЖЕЛАЕМЫЙ ЯЗЫК-</t>
+  </si>
+  <si>
+    <t>БАЖАНА МОВА</t>
+  </si>
+  <si>
+    <t>preferred_currency</t>
+  </si>
+  <si>
+    <t>ПРЕДПОЧИТАЕМАЯ ВАЛЮТА-</t>
+  </si>
+  <si>
+    <t>ПЕРЕВАЖНА ВАЛЮТА</t>
+  </si>
+  <si>
+    <t>ИНФОРМАЦИЯ ОБ АДРЕСЕ</t>
+  </si>
+  <si>
+    <t>ІНФОРМАЦІЯ ПРО АДРЕСУ</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>ПОЧТОВЫЙ КОД-</t>
+  </si>
+  <si>
+    <t>ПОШТОВИЙ КОД</t>
+  </si>
+  <si>
+    <t>flag-dropdown</t>
+  </si>
+  <si>
+    <t>СТРАНА (d)</t>
+  </si>
+  <si>
+    <t>КРАЇНА</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>ГОРОД-</t>
+  </si>
+  <si>
+    <t>МІСТО</t>
+  </si>
+  <si>
+    <t>street_1</t>
+  </si>
+  <si>
+    <t>АДРЕС-</t>
+  </si>
+  <si>
+    <t>НАЗВА ВУЛИЦІ</t>
+  </si>
+  <si>
+    <t>flag-container</t>
+  </si>
+  <si>
+    <t>КОД СТРАНЫ (d)(нет имени)</t>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+  </si>
+  <si>
+    <t>Please use only digital (0-9) in this field.</t>
+  </si>
+  <si>
+    <t>advice-required-entry-mobile_phone</t>
+  </si>
+  <si>
+    <t>МОБИЛЬНЫЙ ТЕЛЕФОН</t>
+  </si>
+  <si>
+    <t>МОБІЛЬНИЙ ТЕЛЕФОН</t>
+  </si>
+  <si>
+    <t>https://ecom-staging-yanair.worldticket.net/booking</t>
+  </si>
+  <si>
+    <t>Flight Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN/ONE WAY</t>
+  </si>
+  <si>
+    <t>radio-button</t>
+  </si>
+  <si>
+    <t>combo-box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combo-box </t>
+  </si>
+  <si>
+    <t>FLIGHT TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLIGHT FROM</t>
+  </si>
+  <si>
+    <t>SEARCH PERIOD</t>
+  </si>
+  <si>
+    <t>PASSENGERS</t>
+  </si>
+  <si>
+    <t>Month-Calendar</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>FLIGHT TO / FLIGHT FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEPARTURE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RETURN DATE</t>
+  </si>
+  <si>
+    <t>list-box</t>
+  </si>
+  <si>
+    <t>box?</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>сегодня+2мес</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLIGHT FROM до (сегодня+2 мес)</t>
+  </si>
+  <si>
+    <t>меняет аэропорты вылет/возращение</t>
+  </si>
+  <si>
+    <t>выбор по вводу города или кода аэропорта. МЕЖДУНАРОДНЫЙ</t>
+  </si>
+  <si>
+    <t>ex/ +-1/ +-2/ +-3</t>
+  </si>
+  <si>
+    <t>FLIGHT SEARCH</t>
+  </si>
+  <si>
+    <t>7 цифры</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>туда (дата обратно неактивно)\ туда-обратно</t>
+  </si>
+  <si>
+    <t>DOCUMENT TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENT NUMBER</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>EXPIRE DATE</t>
+  </si>
+  <si>
+    <t>IISUING COUNTRY</t>
+  </si>
+  <si>
+    <t>DATE OF BIRTH</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>CONTACT INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSENGERS </t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Copy from</t>
+  </si>
+  <si>
+    <t>REMEMBER MY DETAILS</t>
+  </si>
+  <si>
+    <t>CREATE ACCOUNT FOR ME</t>
+  </si>
+  <si>
+    <t>len max=10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +582,168 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -238,7 +806,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,23 +821,137 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -565,404 +1247,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="38"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="48"/>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="36" spans="1:2">
+      <c r="A36" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="F1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -971,18 +1701,742 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="H18:I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="6:6">
+      <c r="F1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="48"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="55"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="55"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="53"/>
+      <c r="B16" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="2"/>
+      <c r="B19" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -991,6 +2445,497 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.75">
+      <c r="A5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36.75">
+      <c r="A6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="48.75">
+      <c r="A7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36.75">
+      <c r="A8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36.75">
+      <c r="A12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36.75">
+      <c r="A13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.75">
+      <c r="A14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.75">
+      <c r="A15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.75">
+      <c r="A16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24.75">
+      <c r="A21" s="16"/>
+      <c r="B21" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="36.75">
+      <c r="A24" s="21"/>
+      <c r="B24" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24.75">
+      <c r="A25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>